--- a/gig.xlsx
+++ b/gig.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WINN/botnoi/botnoi2020/linesiit/botnoiengine/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA9D0B4-0696-F34A-BA4F-65787C27F82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="2020" yWindow="5380" windowWidth="28040" windowHeight="16760" xr2:uid="{7BAF2B9B-D2D2-784C-BC1B-1191F2E00F88}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>QueryWord</t>
+  </si>
   <si>
     <t>ProductName</t>
   </si>
@@ -39,85 +28,52 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>แคปหมู</t>
-  </si>
-  <si>
-    <t>QueryWord</t>
-  </si>
-  <si>
-    <t>แคปหมูแม่หญิงลำปาง</t>
-  </si>
-  <si>
-    <t>กรอบ อร่อย ไม่เหม็นหืน ห่อละ 100 บาท รวมจัดส่งทั่วไทย</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/maeyingporksnack</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/hoyixx2q0/image/upload/v1587305042/image_Uc217a79841540c1b0afe06312a885849_1587305039337.jpg.jpg</t>
-  </si>
-  <si>
-    <t>กระเป๋า</t>
-  </si>
-  <si>
-    <t>https://shopee.co.th/Longchamp-Le-Pliage-Club-Tote-Bag-Size-S-%E0%B8%AB%E0%B8%B9%E0%B8%A2%E0%B8%B2%E0%B8%A7-i.18825871.3819094494?gclid=CjwKCAjwkPX0BRBKEiwA7THxiJDgwaHTv8uy4kprDYH5LAixw3MhCslfvEFqCfng-AxNQNmO8DjZyRoC0XQQAvD_BwE</t>
-  </si>
-  <si>
-    <t>https://img.kaidee.com/prd/20190122/344816297/b/d76dd154-014c-4802-9263-9fcb9775e8f7.jpg</t>
-  </si>
-  <si>
-    <t>กระเป๋า Longchamp Neo Size M สี Chocolate ราคา 4,900 บาท รวมค่าส่ง ค่ะ</t>
-  </si>
-  <si>
-    <t>กระเป๋า Longchamp Neo</t>
-  </si>
-  <si>
-    <t>ส้มตำ</t>
-  </si>
-  <si>
-    <t>https://static.posttoday.com/media/content/2018/10/09/7E68135B4E03435881B219B331FB9169.jpg</t>
-  </si>
-  <si>
-    <t>ส้มตำบนใบตอง</t>
-  </si>
-  <si>
-    <t>ส้มตำ ไก่ย่าง ลาบหมู แซ่ป ๆ บางหว้า</t>
-  </si>
-  <si>
-    <t>โทรสั่ง  0123456789</t>
+    <t>cano789</t>
+  </si>
+  <si>
+    <t>https://slotthai.s3.ap-southeast-1.amazonaws.com/vdo/cano2.jpg</t>
+  </si>
+  <si>
+    <t>https://gighomework.github.io/slotthai/vdo/cano1.jpg</t>
+  </si>
+  <si>
+    <t>https://slotthai.s3.ap-southeast-1.amazonaws.com/vdo/cano3.jpg</t>
+  </si>
+  <si>
+    <t>https://lin.ee/9FX1chx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="12.0"/>
+      <color/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="14.0"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Courier New"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFABB2BF"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <u/>
+      <sz val="12.0"/>
+      <color/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="20.0"/>
+      <color/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,57 +81,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -373,21 +329,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -404,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -455,105 +411,176 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8479B86-B1E0-F94D-9D76-E7CCECF6772A}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="2" width="58.63"/>
+    <col customWidth="1" min="3" max="3" width="75.0"/>
+    <col customWidth="1" min="4" max="4" width="47.13"/>
+    <col customWidth="1" min="5" max="5" width="40.0"/>
+    <col customWidth="1" min="6" max="11" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="D9" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="4"/>
-    </row>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{E57EE574-CC59-DA40-A830-33BA46694548}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{C9EF01BE-327D-1240-9084-3C318449914E}"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="D2"/>
+    <hyperlink r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/gig.xlsx
+++ b/gig.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>QueryWord</t>
   </si>
@@ -41,16 +41,28 @@
   </si>
   <si>
     <t>https://lin.ee/9FX1chx</t>
+  </si>
+  <si>
+    <t>xo555</t>
+  </si>
+  <si>
+    <t>https://slotthai.s3.ap-southeast-1.amazonaws.com/vdo/5552.jpg</t>
+  </si>
+  <si>
+    <t>https://slotthai.s3.ap-southeast-1.amazonaws.com/vdo/5551.jpg</t>
+  </si>
+  <si>
+    <t>https://slotthai.s3.ap-southeast-1.amazonaws.com/vdo/st.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12.0"/>
-      <color/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font/>
@@ -67,13 +79,22 @@
     <font>
       <u/>
       <sz val="12.0"/>
-      <color/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="20.0"/>
-      <color/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,25 +111,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -431,7 +452,7 @@
     <col customWidth="1" min="3" max="3" width="75.0"/>
     <col customWidth="1" min="4" max="4" width="47.13"/>
     <col customWidth="1" min="5" max="5" width="40.0"/>
-    <col customWidth="1" min="6" max="11" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="10.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -469,8 +490,19 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
     <row r="5" ht="15.75" customHeight="1"/>
@@ -478,7 +510,7 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -577,10 +609,13 @@
     <hyperlink r:id="rId2" ref="C2"/>
     <hyperlink r:id="rId3" ref="D2"/>
     <hyperlink r:id="rId4" ref="E2"/>
+    <hyperlink r:id="rId5" ref="B3"/>
+    <hyperlink r:id="rId6" ref="C3"/>
+    <hyperlink r:id="rId7" ref="D3"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/gig.xlsx
+++ b/gig.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>QueryWord</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>https://slotthai.s3.ap-southeast-1.amazonaws.com/vdo/st.png</t>
+  </si>
+  <si>
+    <t>https://gighomework.github.io/slotthai/vdo/5552.jpg</t>
+  </si>
+  <si>
+    <t>https://gighomework.github.io/slotthai/vdo/5551.jpg</t>
+  </si>
+  <si>
+    <t>https://gighomework.github.io/slotthai/vdo/st.png</t>
   </si>
 </sst>
 </file>
@@ -84,17 +93,16 @@
     </font>
     <font>
       <u/>
-      <sz val="20.0"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,17 +127,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,21 +496,34 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="7">
+        <v>555.0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -612,10 +631,13 @@
     <hyperlink r:id="rId5" ref="B3"/>
     <hyperlink r:id="rId6" ref="C3"/>
     <hyperlink r:id="rId7" ref="D3"/>
+    <hyperlink r:id="rId8" ref="B4"/>
+    <hyperlink r:id="rId9" ref="C4"/>
+    <hyperlink r:id="rId10" ref="D4"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>